--- a/natmiOut/OldD7/LR-pairs_lrc2p/Vcam1-Itgb7.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Vcam1-Itgb7.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.56551464986131</v>
+        <v>6.664768333333334</v>
       </c>
       <c r="H2">
-        <v>5.56551464986131</v>
+        <v>19.994305</v>
       </c>
       <c r="I2">
-        <v>0.05702532795953111</v>
+        <v>0.06516174319532789</v>
       </c>
       <c r="J2">
-        <v>0.05702532795953111</v>
+        <v>0.0651617431953279</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.01744856036613</v>
+        <v>1.135193666666667</v>
       </c>
       <c r="N2">
-        <v>1.01744856036613</v>
+        <v>3.405581</v>
       </c>
       <c r="O2">
-        <v>0.1680098833586309</v>
+        <v>0.153770120695047</v>
       </c>
       <c r="P2">
-        <v>0.1680098833586309</v>
+        <v>0.153770120695047</v>
       </c>
       <c r="Q2">
-        <v>5.662624868197996</v>
+        <v>7.565802801800556</v>
       </c>
       <c r="R2">
-        <v>5.662624868197996</v>
+        <v>68.09222521620499</v>
       </c>
       <c r="S2">
-        <v>0.009580818698968497</v>
+        <v>0.01001992911584523</v>
       </c>
       <c r="T2">
-        <v>0.009580818698968497</v>
+        <v>0.01001992911584523</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.56551464986131</v>
+        <v>6.664768333333334</v>
       </c>
       <c r="H3">
-        <v>5.56551464986131</v>
+        <v>19.994305</v>
       </c>
       <c r="I3">
-        <v>0.05702532795953111</v>
+        <v>0.06516174319532789</v>
       </c>
       <c r="J3">
-        <v>0.05702532795953111</v>
+        <v>0.0651617431953279</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.2650914411149</v>
+        <v>2.287366</v>
       </c>
       <c r="N3">
-        <v>2.2650914411149</v>
+        <v>6.862098</v>
       </c>
       <c r="O3">
-        <v>0.3740314386816798</v>
+        <v>0.3098401235152652</v>
       </c>
       <c r="P3">
-        <v>0.3740314386816798</v>
+        <v>0.3098401235152652</v>
       </c>
       <c r="Q3">
-        <v>12.60639959880044</v>
+        <v>15.24476448354334</v>
       </c>
       <c r="R3">
-        <v>12.60639959880044</v>
+        <v>137.20288035189</v>
       </c>
       <c r="S3">
-        <v>0.02132926545799804</v>
+        <v>0.02018972256011039</v>
       </c>
       <c r="T3">
-        <v>0.02132926545799804</v>
+        <v>0.02018972256011039</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.56551464986131</v>
+        <v>6.664768333333334</v>
       </c>
       <c r="H4">
-        <v>5.56551464986131</v>
+        <v>19.994305</v>
       </c>
       <c r="I4">
-        <v>0.05702532795953111</v>
+        <v>0.06516174319532789</v>
       </c>
       <c r="J4">
-        <v>0.05702532795953111</v>
+        <v>0.0651617431953279</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.07345425360781</v>
+        <v>3.138589666666667</v>
       </c>
       <c r="N4">
-        <v>2.07345425360781</v>
+        <v>9.415769000000001</v>
       </c>
       <c r="O4">
-        <v>0.3423866531127109</v>
+        <v>0.425144471843918</v>
       </c>
       <c r="P4">
-        <v>0.3423866531127109</v>
+        <v>0.425144471843918</v>
       </c>
       <c r="Q4">
-        <v>11.53984002427152</v>
+        <v>20.91797302172722</v>
       </c>
       <c r="R4">
-        <v>11.53984002427152</v>
+        <v>188.261757195545</v>
       </c>
       <c r="S4">
-        <v>0.01952471118271855</v>
+        <v>0.02770315489520669</v>
       </c>
       <c r="T4">
-        <v>0.01952471118271855</v>
+        <v>0.0277031548952067</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.56551464986131</v>
+        <v>6.664768333333334</v>
       </c>
       <c r="H5">
-        <v>5.56551464986131</v>
+        <v>19.994305</v>
       </c>
       <c r="I5">
-        <v>0.05702532795953111</v>
+        <v>0.06516174319532789</v>
       </c>
       <c r="J5">
-        <v>0.05702532795953111</v>
+        <v>0.0651617431953279</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.699890910870726</v>
+        <v>0.8212579999999999</v>
       </c>
       <c r="N5">
-        <v>0.699890910870726</v>
+        <v>2.463774</v>
       </c>
       <c r="O5">
-        <v>0.1155720248469782</v>
+        <v>0.1112452839457698</v>
       </c>
       <c r="P5">
-        <v>0.1155720248469782</v>
+        <v>0.1112452839457698</v>
       </c>
       <c r="Q5">
-        <v>3.895253117755802</v>
+        <v>5.473494311896666</v>
       </c>
       <c r="R5">
-        <v>3.895253117755802</v>
+        <v>49.26144880707</v>
       </c>
       <c r="S5">
-        <v>0.006590532619846012</v>
+        <v>0.007248936624165585</v>
       </c>
       <c r="T5">
-        <v>0.006590532619846012</v>
+        <v>0.007248936624165586</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>47.1094810435203</v>
+        <v>47.25592399999999</v>
       </c>
       <c r="H6">
-        <v>47.1094810435203</v>
+        <v>141.767772</v>
       </c>
       <c r="I6">
-        <v>0.4826927562893044</v>
+        <v>0.4620233187619072</v>
       </c>
       <c r="J6">
-        <v>0.4826927562893044</v>
+        <v>0.4620233187619072</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.01744856036613</v>
+        <v>1.135193666666667</v>
       </c>
       <c r="N6">
-        <v>1.01744856036613</v>
+        <v>3.405581</v>
       </c>
       <c r="O6">
-        <v>0.1680098833586309</v>
+        <v>0.153770120695047</v>
       </c>
       <c r="P6">
-        <v>0.1680098833586309</v>
+        <v>0.153770120695047</v>
       </c>
       <c r="Q6">
-        <v>47.93147366732522</v>
+        <v>53.64462563728132</v>
       </c>
       <c r="R6">
-        <v>47.93147366732522</v>
+        <v>482.8016307355319</v>
       </c>
       <c r="S6">
-        <v>0.0810971536822221</v>
+        <v>0.07104538148994465</v>
       </c>
       <c r="T6">
-        <v>0.0810971536822221</v>
+        <v>0.07104538148994463</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>47.1094810435203</v>
+        <v>47.25592399999999</v>
       </c>
       <c r="H7">
-        <v>47.1094810435203</v>
+        <v>141.767772</v>
       </c>
       <c r="I7">
-        <v>0.4826927562893044</v>
+        <v>0.4620233187619072</v>
       </c>
       <c r="J7">
-        <v>0.4826927562893044</v>
+        <v>0.4620233187619072</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.2650914411149</v>
+        <v>2.287366</v>
       </c>
       <c r="N7">
-        <v>2.2650914411149</v>
+        <v>6.862098</v>
       </c>
       <c r="O7">
-        <v>0.3740314386816798</v>
+        <v>0.3098401235152652</v>
       </c>
       <c r="P7">
-        <v>0.3740314386816798</v>
+        <v>0.3098401235152652</v>
       </c>
       <c r="Q7">
-        <v>106.7072823070425</v>
+        <v>108.091593856184</v>
       </c>
       <c r="R7">
-        <v>106.7072823070425</v>
+        <v>972.8243447056558</v>
       </c>
       <c r="S7">
-        <v>0.180542266076114</v>
+        <v>0.1431533621521221</v>
       </c>
       <c r="T7">
-        <v>0.180542266076114</v>
+        <v>0.1431533621521221</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>47.1094810435203</v>
+        <v>47.25592399999999</v>
       </c>
       <c r="H8">
-        <v>47.1094810435203</v>
+        <v>141.767772</v>
       </c>
       <c r="I8">
-        <v>0.4826927562893044</v>
+        <v>0.4620233187619072</v>
       </c>
       <c r="J8">
-        <v>0.4826927562893044</v>
+        <v>0.4620233187619072</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.07345425360781</v>
+        <v>3.138589666666667</v>
       </c>
       <c r="N8">
-        <v>2.07345425360781</v>
+        <v>9.415769000000001</v>
       </c>
       <c r="O8">
-        <v>0.3423866531127109</v>
+        <v>0.425144471843918</v>
       </c>
       <c r="P8">
-        <v>0.3423866531127109</v>
+        <v>0.425144471843918</v>
       </c>
       <c r="Q8">
-        <v>97.67935385494366</v>
+        <v>148.3169547551853</v>
       </c>
       <c r="R8">
-        <v>97.67935385494366</v>
+        <v>1334.852592796668</v>
       </c>
       <c r="S8">
-        <v>0.1652675573076444</v>
+        <v>0.1964266598346052</v>
       </c>
       <c r="T8">
-        <v>0.1652675573076444</v>
+        <v>0.1964266598346052</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>47.1094810435203</v>
+        <v>47.25592399999999</v>
       </c>
       <c r="H9">
-        <v>47.1094810435203</v>
+        <v>141.767772</v>
       </c>
       <c r="I9">
-        <v>0.4826927562893044</v>
+        <v>0.4620233187619072</v>
       </c>
       <c r="J9">
-        <v>0.4826927562893044</v>
+        <v>0.4620233187619072</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.699890910870726</v>
+        <v>0.8212579999999999</v>
       </c>
       <c r="N9">
-        <v>0.699890910870726</v>
+        <v>2.463774</v>
       </c>
       <c r="O9">
-        <v>0.1155720248469782</v>
+        <v>0.1112452839457698</v>
       </c>
       <c r="P9">
-        <v>0.1155720248469782</v>
+        <v>0.1112452839457698</v>
       </c>
       <c r="Q9">
-        <v>32.97149759819662</v>
+        <v>38.80930563239199</v>
       </c>
       <c r="R9">
-        <v>32.97149759819662</v>
+        <v>349.2837506915279</v>
       </c>
       <c r="S9">
-        <v>0.0557857792233239</v>
+        <v>0.05139791528523528</v>
       </c>
       <c r="T9">
-        <v>0.0557857792233239</v>
+        <v>0.05139791528523528</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>19.204973893948</v>
+        <v>20.98736333333333</v>
       </c>
       <c r="H10">
-        <v>19.204973893948</v>
+        <v>62.96209</v>
       </c>
       <c r="I10">
-        <v>0.1967778370296643</v>
+        <v>0.2051944060881897</v>
       </c>
       <c r="J10">
-        <v>0.1967778370296643</v>
+        <v>0.2051944060881898</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.01744856036613</v>
+        <v>1.135193666666667</v>
       </c>
       <c r="N10">
-        <v>1.01744856036613</v>
+        <v>3.405581</v>
       </c>
       <c r="O10">
-        <v>0.1680098833586309</v>
+        <v>0.153770120695047</v>
       </c>
       <c r="P10">
-        <v>0.1680098833586309</v>
+        <v>0.153770120695047</v>
       </c>
       <c r="Q10">
-        <v>19.54007304026651</v>
+        <v>23.82472193603222</v>
       </c>
       <c r="R10">
-        <v>19.54007304026651</v>
+        <v>214.42249742429</v>
       </c>
       <c r="S10">
-        <v>0.03306062144691758</v>
+        <v>0.03155276859012942</v>
       </c>
       <c r="T10">
-        <v>0.03306062144691758</v>
+        <v>0.03155276859012942</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>19.204973893948</v>
+        <v>20.98736333333333</v>
       </c>
       <c r="H11">
-        <v>19.204973893948</v>
+        <v>62.96209</v>
       </c>
       <c r="I11">
-        <v>0.1967778370296643</v>
+        <v>0.2051944060881897</v>
       </c>
       <c r="J11">
-        <v>0.1967778370296643</v>
+        <v>0.2051944060881898</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.2650914411149</v>
+        <v>2.287366</v>
       </c>
       <c r="N11">
-        <v>2.2650914411149</v>
+        <v>6.862098</v>
       </c>
       <c r="O11">
-        <v>0.3740314386816798</v>
+        <v>0.3098401235152652</v>
       </c>
       <c r="P11">
-        <v>0.3740314386816798</v>
+        <v>0.3098401235152652</v>
       </c>
       <c r="Q11">
-        <v>43.50102199401671</v>
+        <v>48.00578131831334</v>
       </c>
       <c r="R11">
-        <v>43.50102199401671</v>
+        <v>432.05203186482</v>
       </c>
       <c r="S11">
-        <v>0.07360109748487446</v>
+        <v>0.0635774601270062</v>
       </c>
       <c r="T11">
-        <v>0.07360109748487446</v>
+        <v>0.06357746012700621</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>19.204973893948</v>
+        <v>20.98736333333333</v>
       </c>
       <c r="H12">
-        <v>19.204973893948</v>
+        <v>62.96209</v>
       </c>
       <c r="I12">
-        <v>0.1967778370296643</v>
+        <v>0.2051944060881897</v>
       </c>
       <c r="J12">
-        <v>0.1967778370296643</v>
+        <v>0.2051944060881898</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.07345425360781</v>
+        <v>3.138589666666667</v>
       </c>
       <c r="N12">
-        <v>2.07345425360781</v>
+        <v>9.415769000000001</v>
       </c>
       <c r="O12">
-        <v>0.3423866531127109</v>
+        <v>0.425144471843918</v>
       </c>
       <c r="P12">
-        <v>0.3423866531127109</v>
+        <v>0.425144471843918</v>
       </c>
       <c r="Q12">
-        <v>39.82063481083343</v>
+        <v>65.8707216885789</v>
       </c>
       <c r="R12">
-        <v>39.82063481083343</v>
+        <v>592.8364951972101</v>
       </c>
       <c r="S12">
-        <v>0.06737410502734523</v>
+        <v>0.08723726740168984</v>
       </c>
       <c r="T12">
-        <v>0.06737410502734523</v>
+        <v>0.08723726740168987</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>19.204973893948</v>
+        <v>20.98736333333333</v>
       </c>
       <c r="H13">
-        <v>19.204973893948</v>
+        <v>62.96209</v>
       </c>
       <c r="I13">
-        <v>0.1967778370296643</v>
+        <v>0.2051944060881897</v>
       </c>
       <c r="J13">
-        <v>0.1967778370296643</v>
+        <v>0.2051944060881898</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.699890910870726</v>
+        <v>0.8212579999999999</v>
       </c>
       <c r="N13">
-        <v>0.699890910870726</v>
+        <v>2.463774</v>
       </c>
       <c r="O13">
-        <v>0.1155720248469782</v>
+        <v>0.1112452839457698</v>
       </c>
       <c r="P13">
-        <v>0.1155720248469782</v>
+        <v>0.1112452839457698</v>
       </c>
       <c r="Q13">
-        <v>13.44138667188378</v>
+        <v>17.23604003640667</v>
       </c>
       <c r="R13">
-        <v>13.44138667188378</v>
+        <v>155.12436032766</v>
       </c>
       <c r="S13">
-        <v>0.02274201307052699</v>
+        <v>0.02282690996936427</v>
       </c>
       <c r="T13">
-        <v>0.02274201307052699</v>
+        <v>0.02282690996936427</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>25.7172709548197</v>
+        <v>27.37233166666667</v>
       </c>
       <c r="H14">
-        <v>25.7172709548197</v>
+        <v>82.116995</v>
       </c>
       <c r="I14">
-        <v>0.2635040787215002</v>
+        <v>0.2676205319545753</v>
       </c>
       <c r="J14">
-        <v>0.2635040787215002</v>
+        <v>0.2676205319545753</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.01744856036613</v>
+        <v>1.135193666666667</v>
       </c>
       <c r="N14">
-        <v>1.01744856036613</v>
+        <v>3.405581</v>
       </c>
       <c r="O14">
-        <v>0.1680098833586309</v>
+        <v>0.153770120695047</v>
       </c>
       <c r="P14">
-        <v>0.1680098833586309</v>
+        <v>0.153770120695047</v>
       </c>
       <c r="Q14">
-        <v>26.166000309527</v>
+        <v>31.07289754989944</v>
       </c>
       <c r="R14">
-        <v>26.166000309527</v>
+        <v>279.656077949095</v>
       </c>
       <c r="S14">
-        <v>0.04427128953052274</v>
+        <v>0.04115204149912773</v>
       </c>
       <c r="T14">
-        <v>0.04427128953052274</v>
+        <v>0.04115204149912772</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>25.7172709548197</v>
+        <v>27.37233166666667</v>
       </c>
       <c r="H15">
-        <v>25.7172709548197</v>
+        <v>82.116995</v>
       </c>
       <c r="I15">
-        <v>0.2635040787215002</v>
+        <v>0.2676205319545753</v>
       </c>
       <c r="J15">
-        <v>0.2635040787215002</v>
+        <v>0.2676205319545753</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.2650914411149</v>
+        <v>2.287366</v>
       </c>
       <c r="N15">
-        <v>2.2650914411149</v>
+        <v>6.862098</v>
       </c>
       <c r="O15">
-        <v>0.3740314386816798</v>
+        <v>0.3098401235152652</v>
       </c>
       <c r="P15">
-        <v>0.3740314386816798</v>
+        <v>0.3098401235152652</v>
       </c>
       <c r="Q15">
-        <v>58.25197032859491</v>
+        <v>62.61054079505667</v>
       </c>
       <c r="R15">
-        <v>58.25197032859491</v>
+        <v>563.49486715551</v>
       </c>
       <c r="S15">
-        <v>0.09855880966269333</v>
+        <v>0.0829195786760266</v>
       </c>
       <c r="T15">
-        <v>0.09855880966269333</v>
+        <v>0.0829195786760266</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>25.7172709548197</v>
+        <v>27.37233166666667</v>
       </c>
       <c r="H16">
-        <v>25.7172709548197</v>
+        <v>82.116995</v>
       </c>
       <c r="I16">
-        <v>0.2635040787215002</v>
+        <v>0.2676205319545753</v>
       </c>
       <c r="J16">
-        <v>0.2635040787215002</v>
+        <v>0.2676205319545753</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.07345425360781</v>
+        <v>3.138589666666667</v>
       </c>
       <c r="N16">
-        <v>2.07345425360781</v>
+        <v>9.415769000000001</v>
       </c>
       <c r="O16">
-        <v>0.3423866531127109</v>
+        <v>0.425144471843918</v>
       </c>
       <c r="P16">
-        <v>0.3423866531127109</v>
+        <v>0.425144471843918</v>
       </c>
       <c r="Q16">
-        <v>53.3235848524555</v>
+        <v>85.91051732157278</v>
       </c>
       <c r="R16">
-        <v>53.3235848524555</v>
+        <v>773.1946558941551</v>
       </c>
       <c r="S16">
-        <v>0.09022027959500276</v>
+        <v>0.1137773897124163</v>
       </c>
       <c r="T16">
-        <v>0.09022027959500276</v>
+        <v>0.1137773897124163</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>25.7172709548197</v>
+        <v>27.37233166666667</v>
       </c>
       <c r="H17">
-        <v>25.7172709548197</v>
+        <v>82.116995</v>
       </c>
       <c r="I17">
-        <v>0.2635040787215002</v>
+        <v>0.2676205319545753</v>
       </c>
       <c r="J17">
-        <v>0.2635040787215002</v>
+        <v>0.2676205319545753</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.699890910870726</v>
+        <v>0.8212579999999999</v>
       </c>
       <c r="N17">
-        <v>0.699890910870726</v>
+        <v>2.463774</v>
       </c>
       <c r="O17">
-        <v>0.1155720248469782</v>
+        <v>0.1112452839457698</v>
       </c>
       <c r="P17">
-        <v>0.1155720248469782</v>
+        <v>0.1112452839457698</v>
       </c>
       <c r="Q17">
-        <v>17.99928419367803</v>
+        <v>22.47974635990333</v>
       </c>
       <c r="R17">
-        <v>17.99928419367803</v>
+        <v>202.31771723913</v>
       </c>
       <c r="S17">
-        <v>0.03045369993328132</v>
+        <v>0.02977152206700469</v>
       </c>
       <c r="T17">
-        <v>0.03045369993328132</v>
+        <v>0.02977152206700469</v>
       </c>
     </row>
   </sheetData>
